--- a/khurana_cv/data/research_projects_details.xlsx
+++ b/khurana_cv/data/research_projects_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E9797E-5B37-4C63-867F-1D8AEB0A5B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E4883B-C624-46BA-A8FD-AC8BF32273CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>type</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Identified and compiled administrative data for Oregon and Ohio on student membership, student state achievement, and special education expenditure</t>
+  </si>
+  <si>
+    <t>short_cv</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -201,7 +204,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -209,7 +211,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +506,7 @@
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +528,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -540,7 +545,7 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
@@ -550,7 +555,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -566,14 +571,14 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G3">
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -589,18 +594,18 @@
       <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G4">
         <v>0.49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>2023</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -612,18 +617,18 @@
       <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>2023</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -635,18 +640,18 @@
       <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>2024</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -655,21 +660,21 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>2024</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -681,21 +686,21 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G8">
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>2024</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -704,7 +709,7 @@
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
     </row>

--- a/khurana_cv/data/research_projects_details.xlsx
+++ b/khurana_cv/data/research_projects_details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SDXC\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havis\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E4883B-C624-46BA-A8FD-AC8BF32273CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C547793-B1DB-46A7-8CE0-DE8AE13C02A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="1875" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
 Conducted multi-level regression and variation analysis and summarized results</t>
   </si>
   <si>
-    <t>DIBELS Spanish Instructions: Randomized Control Trial of Spanish Instructions as an Accommodation</t>
-  </si>
-  <si>
     <t>DIBELS8 Secure form creation</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>short_cv</t>
+  </si>
+  <si>
+    <t>Spanish Instructions as a DIBELS® Accommodation</t>
   </si>
 </sst>
 </file>
@@ -208,10 +208,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,19 +494,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="4" max="5" width="27.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,10 +529,10 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -555,7 +555,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -578,7 +578,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -601,7 +601,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -615,16 +615,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="G5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -638,16 +638,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="G6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -660,17 +660,17 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>18</v>
+      <c r="E7" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7">
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -684,33 +684,33 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8">
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B9">
         <v>2024</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/khurana_cv/data/research_projects_details.xlsx
+++ b/khurana_cv/data/research_projects_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havis\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C547793-B1DB-46A7-8CE0-DE8AE13C02A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1814EA-DCB7-4B2C-A724-6DBA43471604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,63 +66,64 @@
     <t>Rethinking principal effects on student outcomes</t>
   </si>
   <si>
-    <t>Cleaned and compiled Oregon administrative data on discipline and high-school graduation and National Student Clearinghouse data on college outcomes for project analysis</t>
-  </si>
-  <si>
     <t>Who are the students school frequently suspend?</t>
   </si>
   <si>
     <t>Three-year analysis of DIBEL8 Reading Assessment Data</t>
   </si>
   <si>
-    <t xml:space="preserve">Summarized, visualized, and created reports on DIBELS8 student outcome scores for internal purposes
+    <t>DIBELS8 Secure form creation</t>
+  </si>
+  <si>
+    <t>Comparing Reading Growth Trajectories Pre- and Post-COVID-19-related School Closure in a Large Urban District</t>
+  </si>
+  <si>
+    <t>Investigating the effects of literacy tutoring on the reading achievement of struggling readers in grades K-2 during COVID-19 school closure</t>
+  </si>
+  <si>
+    <t>Edunomics Lab, Georgetown University</t>
+  </si>
+  <si>
+    <t>Maggie Cicco</t>
+  </si>
+  <si>
+    <t>short_cv</t>
+  </si>
+  <si>
+    <t>Spanish Instructions as a DIBELS® Accommodation</t>
+  </si>
+  <si>
+    <t>Cleaned and compiled analysis-ready data file using Oregon administrative data.
+Performed statistical analysis using multi-level regression models, variation decomposition analysis, and unsupervised machine learning clustering algorithm .
+Disseminated results at two national policy-level conferences and co-drafted a working paper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summarized, visualized, and created R dashboards to describe changes in student reading outcomes across COVID-19 school closure phases for internal use.
 Conducted a comprehensive literature review on the early evidence of learning growth changes related to COVID-19 pandemic for internal purposes
 </t>
   </si>
   <si>
-    <t>Cleaned and compiled analysis-ready data file using Oregon administrative data
-Conducted multi-level regression and variation analysis and summarized results</t>
-  </si>
-  <si>
-    <t>DIBELS8 Secure form creation</t>
-  </si>
-  <si>
-    <t>Automated form generation and quality-control checks for alternative DIBELS8 subtest form creation using R</t>
-  </si>
-  <si>
-    <t>Comparing Reading Growth Trajectories Pre- and Post-COVID-19-related School Closure in a Large Urban District</t>
-  </si>
-  <si>
-    <t>Conducted multi-level piece-wise growth model analysis by demographic characteristics and grades on reading growth changes for a large-urban district
-Summarized findings in a report and presentation for district administration</t>
-  </si>
-  <si>
-    <t>Investigating the effects of literacy tutoring on the reading achievement of struggling readers in grades K-2 during COVID-19 school closure</t>
-  </si>
-  <si>
-    <t>Conducted regression and power analysis for an RCT research design</t>
-  </si>
-  <si>
-    <t>Identified and developed the research design
-Used several matching-on-observable estimators to identify the causal effect of the program</t>
-  </si>
-  <si>
-    <t>Edunomics Lab, Georgetown University</t>
-  </si>
-  <si>
-    <t>Maggie Cicco</t>
-  </si>
-  <si>
-    <t>Compiling and analysis special education expenditures in Oregon and Ohio</t>
-  </si>
-  <si>
-    <t>Identified and compiled administrative data for Oregon and Ohio on student membership, student state achievement, and special education expenditure</t>
-  </si>
-  <si>
-    <t>short_cv</t>
-  </si>
-  <si>
-    <t>Spanish Instructions as a DIBELS® Accommodation</t>
+    <t>Cleaned and compiled Oregon administrative data on discipline, high-school graduation, and National Student Clearinghouse data on college outcomes for project analysis.
+Developed and maintained annotated, reproducible R code.</t>
+  </si>
+  <si>
+    <t>Automated test form generation and quality control checks for alternative DIBELS8 subtests using R</t>
+  </si>
+  <si>
+    <t>Employed multi-level piecewise growth models to estimate shifts in average reading scores and examine demographic heterogeneity in a large urban district panel sample during the years impacted by COVID-19 school closures.
+Summarized findings in a executive report and presented results to district administration.</t>
+  </si>
+  <si>
+    <t>Performed regression and power analysis as outlined in the pre-analysis plan for an RCT design and drafted a technical report.</t>
+  </si>
+  <si>
+    <t>Developed the research design and used several matching-on-observable estimators to identify the causal effect of the tutoring program on struggling readers</t>
+  </si>
+  <si>
+    <t>Special education expenditures in Oregon</t>
+  </si>
+  <si>
+    <t>Identified and compiled Oregon administrative data on student membership, student state achievement, and special education expenditure for 2022.</t>
   </si>
 </sst>
 </file>
@@ -494,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,10 +530,10 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -548,14 +549,14 @@
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="232" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -569,16 +570,16 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <v>0.33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -592,16 +593,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>0.49</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -615,16 +616,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -638,16 +639,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -661,10 +662,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G7">
         <v>0.4</v>
@@ -684,10 +685,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>0.4</v>
@@ -701,16 +702,16 @@
         <v>2024</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/khurana_cv/data/research_projects_details.xlsx
+++ b/khurana_cv/data/research_projects_details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havis\University of Oregon Dropbox\Havi Khurana\Personal\Coding projects\khurana_cv\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1814EA-DCB7-4B2C-A724-6DBA43471604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F0C7EB-EEBB-4391-931A-01C2C2DC5F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,23 +93,6 @@
     <t>Spanish Instructions as a DIBELS® Accommodation</t>
   </si>
   <si>
-    <t>Cleaned and compiled analysis-ready data file using Oregon administrative data.
-Performed statistical analysis using multi-level regression models, variation decomposition analysis, and unsupervised machine learning clustering algorithm .
-Disseminated results at two national policy-level conferences and co-drafted a working paper.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summarized, visualized, and created R dashboards to describe changes in student reading outcomes across COVID-19 school closure phases for internal use.
-Conducted a comprehensive literature review on the early evidence of learning growth changes related to COVID-19 pandemic for internal purposes
-</t>
-  </si>
-  <si>
-    <t>Cleaned and compiled Oregon administrative data on discipline, high-school graduation, and National Student Clearinghouse data on college outcomes for project analysis.
-Developed and maintained annotated, reproducible R code.</t>
-  </si>
-  <si>
-    <t>Automated test form generation and quality control checks for alternative DIBELS8 subtests using R</t>
-  </si>
-  <si>
     <t>Employed multi-level piecewise growth models to estimate shifts in average reading scores and examine demographic heterogeneity in a large urban district panel sample during the years impacted by COVID-19 school closures.
 Summarized findings in a executive report and presented results to district administration.</t>
   </si>
@@ -117,13 +100,29 @@
     <t>Performed regression and power analysis as outlined in the pre-analysis plan for an RCT design and drafted a technical report.</t>
   </si>
   <si>
-    <t>Developed the research design and used several matching-on-observable estimators to identify the causal effect of the tutoring program on struggling readers</t>
-  </si>
-  <si>
     <t>Special education expenditures in Oregon</t>
   </si>
   <si>
-    <t>Identified and compiled Oregon administrative data on student membership, student state achievement, and special education expenditure for 2022.</t>
+    <t>Wrangled Oregon administrative data on discipline, high-school graduation, and National Student Clearinghouse data on college outcomes for estimating principle effects using value-added-models on students' long-term outcomes.</t>
+  </si>
+  <si>
+    <t>Developed the research design and used several matching-on-observable estimators to identify the causal effect of the tutoring program on struggling readers.</t>
+  </si>
+  <si>
+    <t>Compiled Oregon administrative data on student membership, student state achievement, and special education expenditure for 2022.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summarized, visualized, and created R dashboards to describe changes in student reading outcomes across COVID-19 school closure phases for internal use.
+Conducted a comprehensive literature review on the early evidence of learning growth changes related to COVID-19 pandemic for internal purposes.
+</t>
+  </si>
+  <si>
+    <t>Automated test form generation and quality control checks for alternative DIBELS8 subtests using R.</t>
+  </si>
+  <si>
+    <t>Compiled analysis-ready data file using Oregon administrative data.
+Performed statistical analysis using multi-level regression models, variation decomposition analysis, and unsupervised machine learning clustering algorithm.
+Shared research findings at two national-level policy conferences and co-drafted a working paper.</t>
   </si>
 </sst>
 </file>
@@ -495,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,7 +532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -550,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>0.25</v>
@@ -573,7 +572,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>0.33</v>
@@ -596,7 +595,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>0.49</v>
@@ -619,7 +618,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G5">
         <v>0.25</v>
@@ -642,7 +641,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <v>0.25</v>
@@ -665,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G7">
         <v>0.4</v>
@@ -688,7 +687,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8">
         <v>0.4</v>
@@ -708,10 +707,10 @@
         <v>19</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
